--- a/meta/rq1/Foundation Model Leaderboards.xlsx
+++ b/meta/rq1/Foundation Model Leaderboards.xlsx
@@ -1740,7 +1740,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3812" uniqueCount="1490">
   <si>
     <t>Leaderboard name</t>
   </si>
@@ -2390,7 +2390,7 @@
     <t>Aggregated Result,Supported Functionality</t>
   </si>
   <si>
-    <t>EQ-Bench Leaderboard</t>
+    <t>EQ-Bench</t>
   </si>
   <si>
     <t>EvalPlus</t>
@@ -2843,7 +2843,7 @@
     <t>Shanghai AI Laboratory,University of Hong Kong,Peking University</t>
   </si>
   <si>
-    <t>Aggregated Result,Supported Functionality,Metric</t>
+    <t>Aggregated Result,Supported Functionality,Evaluator</t>
   </si>
   <si>
     <t>Evaluation Results,Inference API+Model Configuration</t>
@@ -4705,6 +4705,9 @@
   </si>
   <si>
     <t>WritingPrompts</t>
+  </si>
+  <si>
+    <t>EQ-Bench Leaderboard</t>
   </si>
   <si>
     <t>EQ-Bench (v2)</t>
@@ -10692,7 +10695,7 @@
         <v>40</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>315</v>
@@ -24875,10 +24878,10 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>216</v>
+        <v>983</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>412</v>
@@ -25120,13 +25123,13 @@
         <v>224</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>287</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>260</v>
@@ -25354,10 +25357,10 @@
         <v>228</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>938</v>
@@ -25369,7 +25372,7 @@
         <v>940</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>943</v>
@@ -25605,7 +25608,7 @@
         <v>624</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>509</v>
@@ -25614,7 +25617,7 @@
         <v>161</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>943</v>
@@ -25626,7 +25629,7 @@
         <v>942</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>938</v>
@@ -25635,10 +25638,10 @@
         <v>940</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>241</v>
@@ -25647,22 +25650,22 @@
         <v>659</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>436</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Y19" s="8" t="s">
         <v>437</v>
@@ -25671,46 +25674,46 @@
         <v>632</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AE19" s="8" t="s">
         <v>243</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AK19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="AL19" s="8" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AM19" s="8" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AN19" s="8" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AO19" s="8" t="s">
         <v>287</v>
@@ -25719,13 +25722,13 @@
         <v>42</v>
       </c>
       <c r="AQ19" s="8" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AR19" s="8" t="s">
         <v>329</v>
       </c>
       <c r="AS19" s="8" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AT19" s="14"/>
       <c r="AU19" s="14"/>
@@ -25908,19 +25911,19 @@
         <v>254</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>679</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -26139,7 +26142,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>269</v>
@@ -26168,94 +26171,94 @@
         <v>436</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>670</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="W22" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Z22" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="X22" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>1033</v>
-      </c>
       <c r="AA22" s="8" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
@@ -26454,7 +26457,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>269</v>
@@ -26684,16 +26687,16 @@
         <v>105</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>269</v>
@@ -26717,7 +26720,7 @@
         <v>679</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O24" s="8" t="s">
         <v>145</v>
@@ -26729,25 +26732,25 @@
         <v>603</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Y24" s="8" t="s">
         <v>716</v>
@@ -26765,73 +26768,73 @@
         <v>69</v>
       </c>
       <c r="AD24" s="8" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF24" s="8" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AI24" s="8" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AK24" s="8" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AL24" s="8" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AM24" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AN24" s="8" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AO24" s="8" t="s">
         <v>671</v>
       </c>
       <c r="AP24" s="8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AQ24" s="8" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AR24" s="8" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AS24" s="8" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AU24" s="8" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AV24" s="8" t="s">
         <v>387</v>
       </c>
       <c r="AW24" s="8" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AX24" s="8" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AY24" s="8" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AZ24" s="8" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
@@ -27005,7 +27008,7 @@
         <v>274</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>710</v>
@@ -27014,13 +27017,13 @@
         <v>711</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>709</v>
@@ -27031,10 +27034,10 @@
         <v>276</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>477</v>
@@ -27049,7 +27052,7 @@
         <v>260</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>671</v>
@@ -27058,7 +27061,7 @@
         <v>387</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
@@ -27516,7 +27519,7 @@
         <v>287</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>810</v>
@@ -27745,13 +27748,13 @@
         <v>551</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>586</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -27973,58 +27976,58 @@
         <v>312</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>316</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>737</v>
@@ -28235,7 +28238,7 @@
         <v>317</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>260</v>
@@ -28244,55 +28247,55 @@
         <v>505</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>462</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
@@ -28499,40 +28502,40 @@
         <v>321</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
@@ -28774,7 +28777,7 @@
         <v>477</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>669</v>
@@ -29001,7 +29004,7 @@
         <v>338</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>269</v>
@@ -29242,10 +29245,10 @@
         <v>412</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>1129</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>1128</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -29472,64 +29475,64 @@
         <v>737</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>621</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>519</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
@@ -29735,7 +29738,7 @@
         <v>364</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>144</v>
@@ -29744,61 +29747,61 @@
         <v>484</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="X38" s="8" t="s">
         <v>461</v>
@@ -29813,13 +29816,13 @@
         <v>206</v>
       </c>
       <c r="AB38" s="8" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AE38" s="8" t="s">
         <v>468</v>
@@ -29831,46 +29834,46 @@
         <v>647</v>
       </c>
       <c r="AH38" s="8" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="AJ38" s="8" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="AK38" s="8" t="s">
         <v>652</v>
       </c>
       <c r="AL38" s="8" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AM38" s="8" t="s">
         <v>639</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AO38" s="8" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="AP38" s="8" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AQ38" s="8" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="AR38" s="8" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="AS38" s="8" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="AT38" s="8" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AU38" s="8" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="AV38" s="14"/>
       <c r="AW38" s="14"/>
@@ -30051,64 +30054,64 @@
         <v>384</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>950</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="T39" s="8" t="s">
         <v>526</v>
       </c>
       <c r="U39" s="8" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
@@ -30315,40 +30318,40 @@
         <v>405</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>330</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>534</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
@@ -30793,10 +30796,10 @@
         <v>425</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>193</v>
@@ -30808,7 +30811,7 @@
         <v>209</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -31029,34 +31032,34 @@
         <v>429</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>284</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>78</v>
@@ -31068,13 +31071,13 @@
         <v>613</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>546</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="44">
@@ -31082,184 +31085,184 @@
         <v>442</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="W44" s="8" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="X44" s="8" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="AB44" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="AF44" s="8" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="AG44" s="8" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="AH44" s="8" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="AJ44" s="8" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AK44" s="8" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AL44" s="8" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="AM44" s="8" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="AN44" s="8" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="AO44" s="8" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="AP44" s="8" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="AQ44" s="8" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="AR44" s="8" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="AS44" s="8" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="AT44" s="8" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AU44" s="8" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="AV44" s="8" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AW44" s="8" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="AX44" s="8" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="AY44" s="8" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="AZ44" s="8" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="BA44" s="8" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="BB44" s="8" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="BC44" s="8" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="BD44" s="8" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="BE44" s="8" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="BF44" s="8" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="BG44" s="8" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="BH44" s="8" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="BI44" s="8" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="BJ44" s="8" t="s">
         <v>741</v>
@@ -31268,40 +31271,40 @@
         <v>747</v>
       </c>
       <c r="BL44" s="8" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="BM44" s="8" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="BN44" s="8" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="BO44" s="8" t="s">
         <v>743</v>
       </c>
       <c r="BP44" s="8" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="BQ44" s="8" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="BR44" s="8" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="BS44" s="8" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="BT44" s="8" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="BU44" s="8" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="BV44" s="8" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="BW44" s="8" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="BX44" s="8" t="s">
         <v>744</v>
@@ -31319,7 +31322,7 @@
         <v>735</v>
       </c>
       <c r="CC44" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="CD44" s="8" t="s">
         <v>736</v>
@@ -31343,76 +31346,76 @@
         <v>619</v>
       </c>
       <c r="CK44" s="8" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="CL44" s="8" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="CM44" s="8" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="CN44" s="8" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="CO44" s="8" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="CP44" s="8" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="CQ44" s="8" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="CR44" s="8" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="CS44" s="8" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="CT44" s="8" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="CU44" s="8" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="CV44" s="8" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="CW44" s="8" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="CX44" s="8" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="CY44" s="8" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="CZ44" s="8" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="DA44" s="8" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="DB44" s="8" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="DC44" s="8" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="DD44" s="8" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="DE44" s="8" t="s">
         <v>560</v>
       </c>
       <c r="DF44" s="8" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="DG44" s="8" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="DH44" s="8" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="DI44" s="14"/>
       <c r="DJ44" s="14"/>
@@ -31528,37 +31531,37 @@
         <v>449</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>404</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>263</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -31777,31 +31780,31 @@
         <v>555</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>397</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>629</v>
@@ -32020,70 +32023,70 @@
         <v>463</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="K47" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L47" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>1155</v>
-      </c>
       <c r="M47" s="8" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="S47" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="T47" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="T47" s="8" t="s">
-        <v>1159</v>
-      </c>
       <c r="U47" s="8" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="W47" s="8" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="X47" s="8" t="s">
         <v>206</v>
@@ -32092,22 +32095,22 @@
         <v>296</v>
       </c>
       <c r="Z47" s="8" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="AA47" s="8" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AB47" s="8" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AC47" s="8" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="AD47" s="8" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AE47" s="8" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="48">
@@ -32115,19 +32118,19 @@
         <v>470</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -32832,7 +32835,7 @@
         <v>412</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>83</v>
@@ -32847,7 +32850,7 @@
         <v>621</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>946</v>
@@ -32868,13 +32871,13 @@
         <v>105</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>548</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="V51" s="8" t="s">
         <v>978</v>
@@ -32886,7 +32889,7 @@
         <v>210</v>
       </c>
       <c r="Y51" s="8" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="Z51" s="8" t="s">
         <v>630</v>
@@ -32916,7 +32919,7 @@
         <v>242</v>
       </c>
       <c r="AI51" s="8" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="AJ51" s="8" t="s">
         <v>463</v>
@@ -32925,16 +32928,16 @@
         <v>485</v>
       </c>
       <c r="AL51" s="8" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="AM51" s="8" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AN51" s="8" t="s">
         <v>209</v>
       </c>
       <c r="AO51" s="8" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AP51" s="8" t="s">
         <v>941</v>
@@ -32943,10 +32946,10 @@
         <v>523</v>
       </c>
       <c r="AR51" s="8" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="AS51" s="8" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AT51" s="8" t="s">
         <v>186</v>
@@ -32958,7 +32961,7 @@
         <v>512</v>
       </c>
       <c r="AW51" s="8" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AX51" s="8" t="s">
         <v>376</v>
@@ -33152,31 +33155,31 @@
         <v>249</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>942</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>946</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>947</v>
@@ -33185,52 +33188,52 @@
         <v>941</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="T52" s="8" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="Y52" s="8" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="Z52" s="8" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="AA52" s="8" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="AB52" s="8" t="s">
         <v>885</v>
       </c>
       <c r="AC52" s="8" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="AD52" s="8" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="AE52" s="8" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AF52" s="14"/>
       <c r="AG52" s="14"/>
@@ -33427,7 +33430,7 @@
         <v>489</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>176</v>
@@ -33454,13 +33457,13 @@
         <v>412</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>373</v>
@@ -33472,13 +33475,13 @@
         <v>712</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="R53" s="8" t="s">
         <v>502</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>714</v>
@@ -33487,10 +33490,10 @@
         <v>732</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
@@ -33695,31 +33698,31 @@
         <v>499</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -33937,37 +33940,37 @@
         <v>509</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -34186,7 +34189,7 @@
         <v>169</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="57">
@@ -34194,10 +34197,10 @@
         <v>513</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="58">
@@ -34205,34 +34208,34 @@
         <v>516</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>484</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>241</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>659</v>
@@ -34250,118 +34253,118 @@
         <v>534</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="S58" s="8" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="T58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="W58" s="8" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="X58" s="8" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="Y58" s="8" t="s">
         <v>647</v>
       </c>
       <c r="Z58" s="8" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AA58" s="8" t="s">
         <v>670</v>
       </c>
       <c r="AB58" s="8" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="AC58" s="8" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="AD58" s="8" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="AE58" s="8" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="AF58" s="8" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="AG58" s="8" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AH58" s="8" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="AI58" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AJ58" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AK58" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="AJ58" s="8" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AK58" s="8" t="s">
-        <v>1157</v>
-      </c>
       <c r="AL58" s="8" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="AM58" s="8" t="s">
         <v>206</v>
       </c>
       <c r="AN58" s="8" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="AO58" s="8" t="s">
         <v>461</v>
       </c>
       <c r="AP58" s="8" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AQ58" s="8" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="AR58" s="8" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="AS58" s="8" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="AT58" s="8" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AU58" s="8" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AV58" s="8" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AW58" s="8" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="AX58" s="8" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AY58" s="8" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AZ58" s="8" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="BA58" s="8" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="BB58" s="8" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="BC58" s="14"/>
       <c r="BD58" s="14"/>
@@ -34535,46 +34538,46 @@
         <v>529</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
@@ -34787,25 +34790,25 @@
         <v>539</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>505</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -35025,10 +35028,10 @@
         <v>554</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="62">
@@ -35036,34 +35039,34 @@
         <v>561</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
@@ -35280,13 +35283,13 @@
         <v>563</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
@@ -35534,10 +35537,10 @@
         <v>675</v>
       </c>
       <c r="J64" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>1346</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>1345</v>
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
@@ -35754,46 +35757,46 @@
         <v>581</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
@@ -36028,16 +36031,16 @@
         <v>622</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>737</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>747</v>
@@ -36046,73 +36049,73 @@
         <v>748</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>624</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="N67" s="8" t="s">
         <v>556</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="R67" s="8" t="s">
         <v>202</v>
       </c>
       <c r="S67" s="8" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="T67" s="8" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="U67" s="8" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="V67" s="8" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="W67" s="8" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="X67" s="8" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="Y67" s="8" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="Z67" s="8" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AA67" s="8" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AB67" s="8" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="AC67" s="8" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AD67" s="8" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="68">
@@ -36120,7 +36123,7 @@
         <v>633</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="69">
@@ -36143,28 +36146,28 @@
         <v>682</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>629</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
@@ -36378,13 +36381,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>241</v>
@@ -36393,7 +36396,7 @@
         <v>639</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="71">
@@ -36407,13 +36410,13 @@
         <v>437</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>286</v>
@@ -36642,7 +36645,7 @@
         <v>978</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>624</v>

--- a/meta/rq1/Foundation Model Leaderboards.xlsx
+++ b/meta/rq1/Foundation Model Leaderboards.xlsx
@@ -1777,7 +1777,7 @@
     <t>Publishing venues</t>
   </si>
   <si>
-    <t>Organization tactics (non-pwc)</t>
+    <t>Organization strategies (non-pwc)</t>
   </si>
   <si>
     <t>Submission artifacts (non-pwc)</t>
